--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201819.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XCD HR_Documents\Project Imp Documents\Regression Testing_2018_2019\Statutory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400"/>
+    <workbookView windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
-    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
-    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
-    <sheet name="ProcessPayrolFor11WeeklyShPP" sheetId="7" r:id="rId6"/>
-    <sheet name="ProcessPayrolFor12WeeklyShPP" sheetId="8" r:id="rId7"/>
-    <sheet name="ProcessPayrolFor13WeeklyShPP" sheetId="9" r:id="rId8"/>
-    <sheet name="ProcessPayrolFor14WeeklyShPP" sheetId="12" r:id="rId9"/>
-    <sheet name="ProcessPayrolFor15WeeklyShPP" sheetId="15" r:id="rId10"/>
-    <sheet name="ProcessPayrolFor16WeeklyShPP" sheetId="16" r:id="rId11"/>
-    <sheet name="ProcessPayrolFor17WeeklyShPP" sheetId="17" r:id="rId12"/>
-    <sheet name="ProcessPayrolFor18WeeklyShPP" sheetId="18" r:id="rId13"/>
-    <sheet name="ProcessPayrolFor19WeeklyShPP" sheetId="19" r:id="rId14"/>
-    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId15"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId16"/>
-    <sheet name="ProcessPayrolFor46WeeklyShPP" sheetId="21" r:id="rId17"/>
-    <sheet name="ProcessPayrolFor47WeeklyShPP" sheetId="22" r:id="rId18"/>
-    <sheet name="ProcessPayrolFor48WeeklyShPP" sheetId="23" r:id="rId19"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
+    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
+    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
+    <sheet name="ProcessPayrolFor11WeeklyShPP" r:id="rId6" sheetId="7"/>
+    <sheet name="ProcessPayrolFor12WeeklyShPP" r:id="rId7" sheetId="8"/>
+    <sheet name="ProcessPayrolFor13WeeklyShPP" r:id="rId8" sheetId="9"/>
+    <sheet name="ProcessPayrolFor14WeeklyShPP" r:id="rId9" sheetId="12"/>
+    <sheet name="ProcessPayrolFor15WeeklyShPP" r:id="rId10" sheetId="15"/>
+    <sheet name="ProcessPayrolFor16WeeklyShPP" r:id="rId11" sheetId="16"/>
+    <sheet name="ProcessPayrolFor17WeeklyShPP" r:id="rId12" sheetId="17"/>
+    <sheet name="ProcessPayrolFor18WeeklyShPP" r:id="rId13" sheetId="18"/>
+    <sheet name="ProcessPayrolFor19WeeklyShPP" r:id="rId14" sheetId="19"/>
+    <sheet name="CreateLeaveRequest" r:id="rId15" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId16" sheetId="11"/>
+    <sheet name="ProcessPayrolFor46WeeklyShPP" r:id="rId17" sheetId="21"/>
+    <sheet name="ProcessPayrolFor47WeeklyShPP" r:id="rId18" sheetId="22"/>
+    <sheet name="ProcessPayrolFor48WeeklyShPP" r:id="rId19" sheetId="23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>
@@ -676,6 +676,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -740,63 +741,63 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -813,10 +814,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -851,7 +852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -903,7 +904,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1008,7 +1009,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1017,13 +1018,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1033,7 +1034,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1042,7 +1043,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1051,7 +1052,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1061,12 +1062,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1097,7 +1098,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1116,7 +1117,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1128,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1137,10 +1138,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>164</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>174</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -1589,12 +1590,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1603,14 +1604,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1657,7 +1658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="66.75" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -1699,14 +1700,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1715,14 +1716,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1769,7 +1770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -1811,14 +1812,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1827,14 +1828,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1881,7 +1882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="66" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -1923,14 +1924,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1939,14 +1940,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1993,7 +1994,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -2035,14 +2036,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2051,14 +2052,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2105,7 +2106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -2147,14 +2148,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2163,15 +2164,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2247,12 +2248,12 @@
       <c r="L2" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2261,15 +2262,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2316,7 +2317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="75.75" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -2356,14 +2357,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2372,14 +2373,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2426,7 +2427,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="71.25" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -2468,14 +2469,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2484,14 +2485,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2538,7 +2539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="67.5" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -2580,14 +2581,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2596,14 +2597,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2650,7 +2651,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -2692,14 +2693,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2708,9 +2709,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,7 +2734,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>141</v>
       </c>
@@ -2750,12 +2751,12 @@
       <c r="F2" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2764,18 +2765,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -3156,15 +3157,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3173,9 +3174,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3204,7 +3205,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>141</v>
       </c>
@@ -3227,12 +3228,12 @@
       <c r="H2" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,8 +3242,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3262,7 +3263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.45" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>141</v>
       </c>
@@ -3276,13 +3277,13 @@
       <c r="E2" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3291,17 +3292,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3348,7 +3349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -3390,14 +3391,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3406,15 +3407,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3461,7 +3462,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -3503,14 +3504,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3519,15 +3520,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3574,7 +3575,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="63" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -3616,14 +3617,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3632,15 +3633,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3687,7 +3688,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="80.25" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -3729,8 +3730,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201819.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201819.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XCD HR_Documents\Project Imp Documents\Regression Testing_2018_2019\Statutory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="214">
   <si>
     <t>TC</t>
   </si>
@@ -670,6 +670,15 @@
   </si>
   <si>
     <t>03/01/2019</t>
+  </si>
+  <si>
+    <t>employeeTaxable</t>
+  </si>
+  <si>
+    <t>employeeNiable</t>
+  </si>
+  <si>
+    <t>includeInHolidayEarnings</t>
   </si>
 </sst>
 </file>
@@ -1132,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,9 +2182,12 @@
     <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -2204,16 +2216,25 @@
         <v>126</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>141</v>
       </c>
@@ -2241,11 +2262,20 @@
       <c r="I2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="J2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2367,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2376,6 +2406,7 @@
     <col min="1" max="1" customWidth="true" width="30.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="30.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="35.85546875" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="33.28515625" collapsed="true"/>
@@ -2479,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
